--- a/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>6,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 18,92</t>
+          <t>-27,1; 5,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 15,01</t>
+          <t>-31,76; 1,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 16,14</t>
+          <t>-22,84; 13,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 24,34</t>
+          <t>-12,27; 21,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 26,14</t>
+          <t>-20,11; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 16,25</t>
+          <t>-0,54; 36,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 18,51</t>
+          <t>-15,55; 7,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 15,91</t>
+          <t>-22,01; 1,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 12,02</t>
+          <t>-5,54; 19,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>-23,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>-24,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 63,07</t>
+          <t>-46,14; 14,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 50,27</t>
+          <t>-55,15; 4,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 53,83</t>
+          <t>-38,79; 35,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 80,83</t>
+          <t>-28,57; 98,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 86,1</t>
+          <t>-47,99; 55,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 51,31</t>
+          <t>-2,12; 168,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 57,96</t>
+          <t>-31,63; 22,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 48,51</t>
+          <t>-44,78; 3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 36,79</t>
+          <t>-10,95; 56,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,5</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 5,16</t>
+          <t>-12,65; 18,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 1,79</t>
+          <t>-16,58; 15,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 13,78</t>
+          <t>-11,44; 16,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 21,07</t>
+          <t>-7,03; 24,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 12,7</t>
+          <t>-6,94; 26,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 36,29</t>
+          <t>-19,18; 16,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 7,78</t>
+          <t>-3,55; 18,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 1,36</t>
+          <t>-6,1; 15,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 19,04</t>
+          <t>-10,6; 12,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,55%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 14,19</t>
+          <t>-27,06; 63,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 4,88</t>
+          <t>-38,24; 50,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 35,78</t>
+          <t>-24,96; 53,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 98,82</t>
+          <t>-14,55; 80,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 55,8</t>
+          <t>-14,48; 86,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 168,41</t>
+          <t>-38,94; 51,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 22,2</t>
+          <t>-8,59; 57,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 3,98</t>
+          <t>-13,43; 48,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 56,63</t>
+          <t>-23,04; 36,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>22,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,93</t>
+          <t>26,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,77</t>
+          <t>14,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 16,79</t>
+          <t>-19,78; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 16,22</t>
+          <t>-20,66; 20,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 29,08</t>
+          <t>-18,7; 24,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 26,79</t>
+          <t>5,46; 40,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 23,73</t>
+          <t>-13,73; 23,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 41,87</t>
+          <t>5,08; 50,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 15,89</t>
+          <t>-3,62; 22,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 16,11</t>
+          <t>-11,38; 16,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 31,6</t>
+          <t>0,43; 30,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>43,04%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 65,35</t>
+          <t>-37,73; 52,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 59,62</t>
+          <t>-41,01; 77,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 104,31</t>
+          <t>-37,34; 84,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 136,11</t>
+          <t>14,97; 262,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 120,06</t>
+          <t>-36,99; 148,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,34; 198,51</t>
+          <t>13,69; 278,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 60,6</t>
+          <t>-8,07; 89,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 60,51</t>
+          <t>-28,25; 62,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 121,47</t>
+          <t>0,08; 114,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,5</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>7,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 5,16</t>
+          <t>-22,91; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 1,79</t>
+          <t>-25,93; 5,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 13,78</t>
+          <t>-15,17; 18,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 21,07</t>
+          <t>-18,27; 12,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 12,7</t>
+          <t>-5,67; 26,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 36,29</t>
+          <t>-2,26; 31,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 7,78</t>
+          <t>-15,16; 4,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 1,36</t>
+          <t>-13,14; 10,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 19,04</t>
+          <t>-4,68; 18,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>-7,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,55%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>18,81%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 14,19</t>
+          <t>-42,65; 14,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 4,88</t>
+          <t>-49,52; 14,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 35,78</t>
+          <t>-27,58; 50,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 98,82</t>
+          <t>-44,17; 50,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 55,8</t>
+          <t>-14,08; 112,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 168,41</t>
+          <t>-6,73; 127,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 22,2</t>
+          <t>-33,48; 14,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 3,98</t>
+          <t>-28,3; 31,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 56,63</t>
+          <t>-10,36; 55,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>32,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>19,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 18,92</t>
+          <t>-15,66; 25,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 15,01</t>
+          <t>-17,02; 22,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 16,14</t>
+          <t>-12,3; 26,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 24,34</t>
+          <t>-6,62; 34,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 26,14</t>
+          <t>-19,58; 19,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 16,25</t>
+          <t>12,7; 52,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 18,51</t>
+          <t>-4,3; 25,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 15,91</t>
+          <t>-12,06; 14,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 12,02</t>
+          <t>3,41; 33,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>109,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>59,32%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 63,07</t>
+          <t>-33,66; 98,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 50,27</t>
+          <t>-37,09; 95,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 53,83</t>
+          <t>-28,48; 106,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 80,83</t>
+          <t>-17,97; 210,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 86,1</t>
+          <t>-46,62; 127,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 51,31</t>
+          <t>31,66; 344,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 57,96</t>
+          <t>-10,86; 108,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 48,51</t>
+          <t>-29,42; 64,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 36,79</t>
+          <t>7,83; 141,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 6,09</t>
+          <t>-18,71; 18,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 4,46</t>
+          <t>-23,77; 15,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 11,56</t>
+          <t>-15,36; 19,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 17,1</t>
+          <t>-12,56; 27,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 14,89</t>
+          <t>-9,62; 29,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 23,31</t>
+          <t>-29,55; 11,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,71</t>
+          <t>-8,83; 19,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 7,25</t>
+          <t>-10,62; 18,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 14,52</t>
+          <t>-16,52; 10,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>-12,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>-5,74%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 16,34</t>
+          <t>-40,02; 59,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 12,07</t>
+          <t>-51,57; 50,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 30,77</t>
+          <t>-32,07; 73,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 61,31</t>
+          <t>-25,93; 90,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 55,65</t>
+          <t>-19,55; 99,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,52; 82,48</t>
+          <t>-59,59; 37,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 25,23</t>
+          <t>-18,26; 59,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 20,67</t>
+          <t>-22,7; 56,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 43,66</t>
+          <t>-35,21; 30,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 6,75</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 4,74</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 13,83</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 18,54</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 14,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 23,48</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 9,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 6,59</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 14,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 17,82</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-31,01; 13,43</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 39,22</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 66,28</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 53,14</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 82,9</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 28,37</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 19,21</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 43,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 15,83</t>
+          <t>-22,77; 16,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 20,85</t>
+          <t>-21,53; 20,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 24,74</t>
+          <t>-18,02; 26,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 40,52</t>
+          <t>5,08; 39,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 23,99</t>
+          <t>-14,15; 21,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 50,26</t>
+          <t>1,19; 47,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 22,29</t>
+          <t>-2,77; 22,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 16,08</t>
+          <t>-12,0; 17,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 30,62</t>
+          <t>-0,31; 31,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 52,36</t>
+          <t>-43,37; 51,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 77,46</t>
+          <t>-41,44; 67,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 84,96</t>
+          <t>-37,57; 86,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,97; 262,35</t>
+          <t>12,5; 235,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 148,97</t>
+          <t>-41,03; 123,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 278,19</t>
+          <t>2,57; 273,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 89,76</t>
+          <t>-5,96; 92,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 62,32</t>
+          <t>-27,88; 65,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 114,24</t>
+          <t>-1,45; 120,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 5,37</t>
+          <t>-24,89; 5,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 5,78</t>
+          <t>-26,51; 3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 18,82</t>
+          <t>-14,52; 19,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 12,05</t>
+          <t>-17,03; 10,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 26,03</t>
+          <t>-5,16; 25,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 31,61</t>
+          <t>-2,21; 30,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 4,63</t>
+          <t>-16,02; 4,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 10,38</t>
+          <t>-11,71; 10,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 18,39</t>
+          <t>-4,85; 19,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 14,33</t>
+          <t>-45,41; 14,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 14,3</t>
+          <t>-50,17; 9,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 50,58</t>
+          <t>-26,8; 53,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 50,44</t>
+          <t>-41,23; 42,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 112,12</t>
+          <t>-12,51; 110,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 127,9</t>
+          <t>-5,9; 122,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 14,11</t>
+          <t>-34,48; 13,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 31,32</t>
+          <t>-26,05; 32,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 55,72</t>
+          <t>-10,55; 56,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 25,82</t>
+          <t>-13,71; 27,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 22,67</t>
+          <t>-17,66; 22,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 26,07</t>
+          <t>-12,46; 27,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 34,19</t>
+          <t>-7,16; 34,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 19,34</t>
+          <t>-21,53; 20,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,7; 52,26</t>
+          <t>11,45; 53,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 25,05</t>
+          <t>-5,89; 25,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 14,9</t>
+          <t>-13,54; 14,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 33,59</t>
+          <t>4,79; 32,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 98,82</t>
+          <t>-31,06; 110,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 95,65</t>
+          <t>-38,22; 97,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 106,91</t>
+          <t>-26,8; 120,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 210,1</t>
+          <t>-14,4; 233,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 127,24</t>
+          <t>-51,95; 138,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,66; 344,78</t>
+          <t>24,62; 365,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 108,78</t>
+          <t>-13,51; 103,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 64,06</t>
+          <t>-33,12; 58,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 141,44</t>
+          <t>9,61; 139,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 18,56</t>
+          <t>-18,47; 20,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 15,06</t>
+          <t>-23,06; 17,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 19,4</t>
+          <t>-17,76; 19,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 27,41</t>
+          <t>-10,93; 25,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 29,57</t>
+          <t>-10,78; 29,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 11,88</t>
+          <t>-30,85; 10,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 19,18</t>
+          <t>-7,78; 18,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 18,02</t>
+          <t>-9,78; 18,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 10,73</t>
+          <t>-16,59; 11,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 59,77</t>
+          <t>-40,12; 62,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 50,37</t>
+          <t>-50,61; 59,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 73,37</t>
+          <t>-33,22; 66,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 90,2</t>
+          <t>-22,22; 86,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 99,59</t>
+          <t>-20,85; 96,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 37,63</t>
+          <t>-58,53; 37,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 59,38</t>
+          <t>-17,47; 58,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 56,69</t>
+          <t>-21,81; 56,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 30,8</t>
+          <t>-36,01; 36,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,75</t>
+          <t>-10,36; 6,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,74</t>
+          <t>-13,29; 5,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 13,83</t>
+          <t>-6,68; 12,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 18,54</t>
+          <t>0,73; 17,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 14,84</t>
+          <t>-3,67; 15,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,48</t>
+          <t>1,86; 22,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,44</t>
+          <t>-3,32; 9,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,59</t>
+          <t>-6,21; 6,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,22</t>
+          <t>0,53; 14,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 17,82</t>
+          <t>-22,97; 17,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 13,43</t>
+          <t>-29,85; 13,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 39,22</t>
+          <t>-15,55; 34,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,5; 66,28</t>
+          <t>1,99; 65,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 53,14</t>
+          <t>-9,84; 54,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,21; 82,9</t>
+          <t>5,41; 82,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 28,37</t>
+          <t>-7,89; 27,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 19,21</t>
+          <t>-15,27; 19,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,6; 43,15</t>
+          <t>1,36; 43,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>22,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26,59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,73</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,16</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,65</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>13,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 16,19</t>
+          <t>4,29; 39,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 20,02</t>
+          <t>-11,83; 25,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 26,37</t>
+          <t>4,57; 48,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 39,53</t>
+          <t>-19,79; 17,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 21,73</t>
+          <t>-24,67; 19,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 47,12</t>
+          <t>-17,78; 23,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 22,59</t>
+          <t>-3,12; 22,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 17,02</t>
+          <t>-12,48; 15,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 31,42</t>
+          <t>-2,36; 30,58</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>83,38%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-4,28%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-2,86%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>83,38%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,3%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>40,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 51,73</t>
+          <t>10,13; 244,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 67,57</t>
+          <t>-35,23; 155,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 86,51</t>
+          <t>12,7; 275,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 235,96</t>
+          <t>-40,45; 60,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 123,57</t>
+          <t>-47,22; 66,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 273,51</t>
+          <t>-37,12; 81,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 92,41</t>
+          <t>-7,22; 85,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 65,05</t>
+          <t>-30,57; 58,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 120,13</t>
+          <t>-6,28; 111,52</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,5</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-8,46</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-11,37</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>6,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 5,07</t>
+          <t>-19,14; 12,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 3,41</t>
+          <t>-6,91; 25,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 19,51</t>
+          <t>-5,73; 29,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 10,7</t>
+          <t>-22,7; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 25,44</t>
+          <t>-27,05; 2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 30,21</t>
+          <t>-14,64; 18,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 4,67</t>
+          <t>-15,34; 4,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 10,91</t>
+          <t>-12,24; 9,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 19,75</t>
+          <t>-4,63; 20,85</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-18,38%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-24,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-7,63%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>27,22%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 14,69</t>
+          <t>-44,1; 54,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 9,3</t>
+          <t>-16,5; 104,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 53,62</t>
+          <t>-12,57; 122,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 42,55</t>
+          <t>-42,02; 15,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 110,54</t>
+          <t>-51,12; 7,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 122,65</t>
+          <t>-28,54; 50,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,48; 13,62</t>
+          <t>-33,99; 15,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 32,33</t>
+          <t>-27,55; 28,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 56,6</t>
+          <t>-11,03; 61,58</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>14,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>5,88</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3,2</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,59</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,59</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>18,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 27,06</t>
+          <t>-7,76; 33,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 22,78</t>
+          <t>-20,62; 17,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 27,48</t>
+          <t>8,78; 50,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 34,82</t>
+          <t>-15,18; 27,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 20,01</t>
+          <t>-17,16; 22,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 53,19</t>
+          <t>-15,16; 26,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 25,01</t>
+          <t>-3,92; 24,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 14,13</t>
+          <t>-14,03; 14,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 32,87</t>
+          <t>2,04; 32,88</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>48,99%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>105,99%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>16,52%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>9,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>22,52%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>48,99%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,45%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>109,42%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>57,07%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 110,65</t>
+          <t>-17,07; 195,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 97,84</t>
+          <t>-48,37; 105,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 120,22</t>
+          <t>20,75; 323,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 233,84</t>
+          <t>-31,79; 117,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 138,9</t>
+          <t>-36,59; 101,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,62; 365,66</t>
+          <t>-30,59; 111,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 103,47</t>
+          <t>-9,47; 107,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 58,38</t>
+          <t>-32,11; 60,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 139,97</t>
+          <t>5,18; 140,91</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10,79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-16,84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-4,75</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>10,79</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-7,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 20,1</t>
+          <t>-11,42; 28,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 17,59</t>
+          <t>-8,46; 32,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 19,3</t>
+          <t>-39,17; 4,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 25,82</t>
+          <t>-16,83; 20,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 29,42</t>
+          <t>-23,52; 13,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 10,68</t>
+          <t>-14,78; 19,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 18,66</t>
+          <t>-7,38; 19,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 18,51</t>
+          <t>-9,61; 18,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 11,69</t>
+          <t>-27,63; 6,29</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-41,66%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>3,44%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-12,18%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>26,69%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-19,51%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 62,97</t>
+          <t>-22,35; 103,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 59,85</t>
+          <t>-17,22; 115,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 66,04</t>
+          <t>-81,38; 11,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 86,08</t>
+          <t>-36,91; 70,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 96,53</t>
+          <t>-50,3; 50,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 37,32</t>
+          <t>-31,04; 67,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 58,08</t>
+          <t>-16,06; 57,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 56,14</t>
+          <t>-21,5; 54,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 36,27</t>
+          <t>-60,45; 17,48</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-2,21</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-4,49</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 6,43</t>
+          <t>-0,53; 17,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 5,01</t>
+          <t>-2,4; 14,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 12,37</t>
+          <t>-10,52; 18,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 17,7</t>
+          <t>-10,88; 6,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 15,0</t>
+          <t>-13,99; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 22,97</t>
+          <t>-6,56; 11,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 9,2</t>
+          <t>-3,55; 8,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,41</t>
+          <t>-5,98; 7,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,53; 14,73</t>
+          <t>-5,34; 12,08</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-5,36%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-10,89%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>27,29%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 17,64</t>
+          <t>-1,21; 61,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 13,51</t>
+          <t>-6,92; 55,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 34,03</t>
+          <t>-28,37; 61,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,99; 65,25</t>
+          <t>-24,42; 16,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 54,72</t>
+          <t>-31,09; 12,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,41; 82,32</t>
+          <t>-14,65; 30,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 27,52</t>
+          <t>-8,5; 25,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 19,17</t>
+          <t>-14,85; 20,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,36; 43,44</t>
+          <t>-13,5; 34,82</t>
         </is>
       </c>
     </row>
